--- a/medicine/Mort/Décès_en_1947/Décès_en_1947.xlsx
+++ b/medicine/Mort/Décès_en_1947/Décès_en_1947.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1947</t>
+          <t>Décès_en_1947</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1947</t>
+          <t>Décès_en_1947</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,14 +540,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Marie Duret, peintre et pastelliste française (° 1872).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marie Duret, peintre et pastelliste française (° 1872).
 Bruno Guillermin, peintre français (° 1878).
 Maurice Guiraud-Rivière, peintre, dessinateur, et sculpteur français (° 10 février 1881).
 Vers 1947 :
-Antônio Maciel Bonfim, homme politique brésilien (° 10 février 1905).
-Janvier
-3 janvier :
+Antônio Maciel Bonfim, homme politique brésilien (° 10 février 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier :
 Jean Bernex, homme politique français (° 26 octobre 1893).
 Abdeljelil Zaouche, homme politique et homme d'affaires tunisien (° 15 décembre 1873).
 Ferdinand Puyau, écrivain et avocat français (° 3 novembre 1857).
@@ -560,9 +611,43 @@
 26 janvier : Grace Moore
 28 janvier :
 Marthe Chenal, soprano d'opéra française (° 24 août 1881).
-Reynaldo Hahn, chef d'orchestre, critique musical et compositeur français (° 9 août 1874).
-Février
-4 février : Luigi Russolo, peintre et compositeur italien (° 30 avril 1885).
+Reynaldo Hahn, chef d'orchestre, critique musical et compositeur français (° 9 août 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 février : Luigi Russolo, peintre et compositeur italien (° 30 avril 1885).
 5 février : Salvatore Cardillo, auteur-compositeur italien (° 20 février 1874).
 6 février :
 Jean Coraboeuf, peintre et graveur français (° 6 novembre 1870).
@@ -580,9 +665,43 @@
 22 février : Marc Mouclier, peintre, décorateur, illustrateur et graveur français (° 19 janvier 1866).
 24 février : Jeanne Labric, peintre et brodeuse d'art française (° 16 février 1861).
 26 février : Ben Webster, acteur anglais (° 2 juin 1864).
-28 février : Robert Jahoda, relieur polonais (° 28 février 1947).
-Mars
-9 mars : Carrie Chapman Catt, journaliste, professeur et suffragette américaine (° 9 janvier 1859).
+28 février : Robert Jahoda, relieur polonais (° 28 février 1947).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>9 mars : Carrie Chapman Catt, journaliste, professeur et suffragette américaine (° 9 janvier 1859).
 16 mars : Marie-Aimée Coutant, peintre française (° 13 janvier 1890).
 18 mars :
 Edgar Chahine, peintre et graveur français d'origine arménienne (° 31 octobre 1874).
@@ -593,9 +712,43 @@
 25 mars :
 Joseph Milon, peintre et sculpteur français (° 11 septembre 1868).
 Tan Ting-pho, peintre taïwanais (° 2 février 1895).
-28 mars : Rudolph Simonsen, compositeur, historien de la musique et pédagogue danois (° 30 avril 1889).
-Avril
-1er avril : Georges II de Grèce, roi des Hellènes (° 19 septembre 1890).
+28 mars : Rudolph Simonsen, compositeur, historien de la musique et pédagogue danois (° 30 avril 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Georges II de Grèce, roi des Hellènes (° 19 septembre 1890).
 6 avril :
 William P. Carleton, acteur britannique (° 3 octobre 1872).
 Matija Jama, peintre serbe puis yougoslave (° 4 janvier 1872).
@@ -606,16 +759,84 @@
 Willa Cather, romancière américaine (° 7 décembre 1873).
 Giovanni Colmo, peintre italien (° 13 mai 1867).
 Emily Patricia Gibson, féministe néo-zélandaise (° 1864).
-27 avril : Heinrich Altherr, peintre suisse (° 11 juillet 1878).
-Mai
-3 mai : Harry Holman, acteur américain (° 15 mars 1872).
+27 avril : Heinrich Altherr, peintre suisse (° 11 juillet 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mai : Harry Holman, acteur américain (° 15 mars 1872).
 11 mai : Jan Lavezzari, peintre français (° 3 janvier 1876).
 15 mai : John Arledge, acteur américain (° 12 mars 1907).
 16 mai : Frederick Gowland Hopkins, physiologiste et chimiste britannique (° 20 juin 1861).
 23 mai : Charles Ferdinand Ramuz, écrivain et poète suisse (° 24 septembre 1878).
-28 mai : Lioubov Hakkebush, actrice de théâtre soviétique (° 26 septembre 1888).
-Juin
-6 juin : Hugues de Beaumont, peintre français (° 26 octobre 1874).
+28 mai : Lioubov Hakkebush, actrice de théâtre soviétique (° 26 septembre 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6 juin : Hugues de Beaumont, peintre français (° 26 octobre 1874).
 9 juin : Augusto Giacometti, peintre suisse (° 16 août 1877).
 10 juin : Alexander Bethune, maire de Vancouver.
 14 juin : Albert Marquet, peintre et dessinateur français (° 27 mars 1875).
@@ -628,9 +849,43 @@
 Richard Bedford Bennett, premier ministre du Canada (° 3 juillet 1870).
 Léopold Lelée, peintre et illustrateur français (° 13 décembre 1872).
 27 juin : Marie-Louise Pichot, peintre française (° 1er janvier 1885).
-29 juin : Orla Jørgensen, coureur cycliste danois (° 25 mai 1904).
-Juillet
-8 juillet : Marcel-Gaillard, peintre, graveur, illustrateur français (° 17 juin 1886).
+29 juin : Orla Jørgensen, coureur cycliste danois (° 25 mai 1904).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>8 juillet : Marcel-Gaillard, peintre, graveur, illustrateur français (° 17 juin 1886).
 10 juillet : Dominique Frassati, peintre français (° 29 mars 1896).
 15 juillet : Brandon Hurst, acteur britannique (° 30 novembre 1866).
 17 juillet :
@@ -647,9 +902,43 @@
 30 juillet :
 Charles Atamian, peintre français d'origine arménienne (° 18 septembre 1872).
 Joseph Cook, homme d'État britannique puis australien (° 7 décembre 1860).
-Fédir Krytchevsky, peintre moderniste russe puis soviétique (° 22 mai 1879).
-Août
-5 août : Georges Capgras, peintre français (° 16 mai 1866).
+Fédir Krytchevsky, peintre moderniste russe puis soviétique (° 22 mai 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5 août : Georges Capgras, peintre français (° 16 mai 1866).
 9 août : Serafima Blonskaïa, peintre et professeur d'art russe puis soviétique (° 3 octobre 1870).
 17 août :
 Eugène de Suède, prince suédois et norvégien et duc de Närke, peintre et graveur (° 1er août 1865).
@@ -658,9 +947,43 @@
 Oskar Moll, peintre allemand (° 21 juillet 1875).
 Samuel Agourski, historien et personnalité politique biélorusse (° 15 avril 1884).
 20 août : Albert Henderson, footballeur international canadien (° 29 août 1881).
-29 août : Manuel Rodríguez Sánchez dit « Manolete », matador espagnol (° 4 juillet 1917).
-Septembre
-5 septembre : William Graham, hockeyeur sur gazon irlandais (° 29 janvier 1886).
+29 août : Manuel Rodríguez Sánchez dit « Manolete », matador espagnol (° 4 juillet 1917).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5 septembre : William Graham, hockeyeur sur gazon irlandais (° 29 janvier 1886).
 7 septembre :
 Paul Bocquet, peintre français (° 17 octobre 1868).
 Lee Choo Neo, médecin singapourienne (° 7 septembre 1895).
@@ -671,9 +994,43 @@
 20 septembre : Lucien Jonas, peintre français (° 8 avril 1880).
 26 septembre : Hugh Lofting, écrivain britannique (° 14 janvier 1886).
 27 septembre : Maurice Asselin, peintre et graveur français (° 24 juin 1882).
-28 septembre : Jan Zoetelief Tromp, peintre néerlandais (° 13 décembre 1872).
-Octobre
-4 octobre : Max Planck, physicien allemand (° 23 avril 1858).
+28 septembre : Jan Zoetelief Tromp, peintre néerlandais (° 13 décembre 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4 octobre : Max Planck, physicien allemand (° 23 avril 1858).
 6 octobre : Leevi Madetoja, compositeur finlandais (° 17 février 1887).
 13 octobre : Jules Vandievoet, peintre décorateur de théâtre et régisseur belge (° 1885).
 20 octobre : Paul Carton, médecin  français (° 12 mars 1875).
@@ -681,9 +1038,43 @@
 27 octobre :
 Luigi Gioli, peintre italien (° 16 novembre 1854).
 Adolphe Péterelle, peintre français d'origine suisse (° 26 juin 1874).
-31 octobre : Louis-François Biloul, peintre français (° 15 octobre 1874).
-Novembre
-1er novembre : Sarah Venie Barr, femme politique irlandaise (° 3 octobre 1875).
+31 octobre : Louis-François Biloul, peintre français (° 15 octobre 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Sarah Venie Barr, femme politique irlandaise (° 3 octobre 1875).
 3 novembre : John G. Winant, homme politique américain (° 23 février 1889).
 6 novembre : René Schillemann, footballeur français  (° 5 janvier 1908).
 14 novembre : Walter Edward Foster, premier ministre du Nouveau-Brunswick (° 9 avril 1873).
@@ -697,9 +1088,43 @@
 28 novembre :
 Philippe Leclerc de Hauteclocque, soldat français, maréchal de France (° 22 novembre 1902).
 Georg Schnéevoigt, chef d'orchestre et violoncelliste finlandais (° 8 novembre 1872).
-30 novembre : Ernst Lubitsch, réalisateur américain d'origine allemande (° 29 janvier 1892).
-Décembre
-1er décembre : Aleister Crowley, écrivain et occultiste britannique (° 12 octobre 1875).
+30 novembre : Ernst Lubitsch, réalisateur américain d'origine allemande (° 29 janvier 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1947</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1947</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre : Aleister Crowley, écrivain et occultiste britannique (° 12 octobre 1875).
 7 décembre :
 Tristan Bernard, écrivain français (° 7 septembre 1866).
 Nicholas Butler, philosophe, homme politique, professeur d'université et diplomate américain (° 2 avril 1862).
